--- a/teste_import/test_importer_etudiant.xlsx
+++ b/teste_import/test_importer_etudiant.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26924"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27029"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lapto\Desktop\PI_S3\teste_import\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\PI\PI_S3\teste_import\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2AA1042C-0AE3-4233-96FC-CB48BA789CCA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{856D9318-4BC0-41A6-B557-D5B1BE101C15}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{C9461B63-8F9B-436C-A9DB-24BA4AF96B80}"/>
   </bookViews>
@@ -424,7 +424,7 @@
   <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H7" sqref="H7"/>
+      <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
